--- a/Excel Assignment/SUMIF 1.xlsx
+++ b/Excel Assignment/SUMIF 1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bhavs\Downloads\EXCEL_ASSIGNMENT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/14dd1702bc555a24/Desktop/git/DA/Excel Assignment/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAAC52F3-2AEC-4D80-B4F3-034737BAA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{BAAC52F3-2AEC-4D80-B4F3-034737BAA308}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E02EB9C8-6B36-49B7-8525-905F6E60FC89}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{03C65BCA-DAE2-4E91-A734-4A07553149E0}"/>
   </bookViews>
@@ -134,7 +134,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -156,12 +156,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -574,7 +568,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
